--- a/Experiments/230216_tdcb/genex_destination.xlsx
+++ b/Experiments/230216_tdcb/genex_destination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230216_tdcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB2C13-7B6B-234F-B333-C9628FD44D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A2947-A236-4840-8A86-7BCD59C0F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{76D38BF9-860E-4B75-9878-D13CDDC495A6}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O13"/>
+      <selection activeCell="P2" sqref="P2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -894,10 +894,10 @@
       <c r="M2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -941,10 +941,10 @@
       <c r="M3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>113</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -988,10 +988,10 @@
       <c r="M4" t="s">
         <v>104</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>114</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1035,10 +1035,10 @@
       <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>115</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1079,10 +1079,10 @@
       <c r="M6" t="s">
         <v>106</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>116</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1126,10 +1126,10 @@
       <c r="M7" t="s">
         <v>107</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>117</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="M8" t="s">
         <v>108</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>118</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1220,10 +1220,10 @@
       <c r="M9" t="s">
         <v>109</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>119</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1267,10 +1267,10 @@
       <c r="M10" t="s">
         <v>110</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1312,10 +1312,10 @@
       <c r="M11" t="s">
         <v>71</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>121</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1354,10 +1354,10 @@
       <c r="M12" t="s">
         <v>71</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1393,10 +1393,10 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>122</v>
       </c>
     </row>
